--- a/next/app/model-year-report/lib/templates/forecast_report_template.xlsx
+++ b/next/app/model-year-report/lib/templates/forecast_report_template.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14C4A9B-C768-D24A-8462-63F65AFF6137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC1C589-221F-3C4A-9C21-E27A68100ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20520" xr2:uid="{3E367DA1-2811-4C43-8C2A-70EAFD4D2A2F}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20480" xr2:uid="{3E367DA1-2811-4C43-8C2A-70EAFD4D2A2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
-    <sheet name="Forecast Report" sheetId="2" r:id="rId2"/>
-    <sheet name="Dropdowns" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="ZEV Forecast" sheetId="2" r:id="rId2"/>
+    <sheet name="Non-ZEV Forecast" sheetId="4" r:id="rId3"/>
+    <sheet name="Dropdowns" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Model Year</t>
   </si>
@@ -136,9 +137,6 @@
     <t>ZEV Supply Forecast</t>
   </si>
   <si>
-    <t>Click on the "Forecast Report" sheet to provide information on the anticipated zero-emission vehicles (ZEV) supplied into British Columbia for the next three model years.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -277,9 +275,6 @@
     </r>
   </si>
   <si>
-    <t>Guidance on Column Headings:</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -324,6 +319,15 @@
       </rPr>
       <t>Must be a number.</t>
     </r>
+  </si>
+  <si>
+    <t>Click on the "ZEV Forecast" and "Non-ZEV Forecast" sheets to provide information on the anticipated reportable zero-emission vehicles (ZEVs) and reportable non-ZEVs supplied into British Columbia for the next three model years.</t>
+  </si>
+  <si>
+    <t>Guidance on "ZEV Forecast" Column Headings:</t>
+  </si>
+  <si>
+    <t>Non-ZEV Supply Forecast</t>
   </si>
   <si>
     <r>
@@ -347,8 +351,48 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">- Do not alter the structure of this template (e.g., name of the sheet, header names, drop-downs).
-- A minimum of 1 to a maximum of 2000 individual records can be provided.
-- No field in the "Forecast Report" sheet may be blank. </t>
+- A minimum of 1 to a maximum of 2000 individual records can be provided in the "ZEV Forecast" sheet.
+- Exactly 3 records must be provided in the "Non-ZEV Forecast" sheet.
+- No field in either the "ZEV Forecast" sheet or "Non-ZEV Forecast" sheet may be blank. </t>
+    </r>
+  </si>
+  <si>
+    <t>Guidance on "Non-ZEV Forecast" Column Headings:</t>
+  </si>
+  <si>
+    <r>
+      <t>(1) "Model Year"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Must be a 4 digit number.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2) "Non-ZEV Supply Forecast"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Must be a number.</t>
     </r>
   </si>
 </sst>
@@ -356,7 +400,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,6 +414,19 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -393,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -402,6 +459,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3882FB2-E1FB-7145-985F-5D4D3D2256D4}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -745,59 +804,74 @@
     <col min="1" max="1" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -809,9 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFABA7BD-FA5A-AB47-AC69-5AFF4A29011C}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -876,11 +948,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FD9498-36E2-CB46-A009-080E128A1A36}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E032F77C-386B-40FF-9326-AA2E46F58A00}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
